--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_a.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_a.xlsx
@@ -42,7 +42,7 @@
     <t>[PopupDialog(dialogHead="$avatar_tomimi")] 全員、い、一斉にかかれ！</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_tomimi")] I... I haven’t lost yet!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_tomimi")] I... I haven't lost yet!
 </t>
   </si>
   <si>
